--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="896">
   <si>
     <t>anchor score</t>
   </si>
@@ -265,526 +265,526 @@
     <t>share</t>
   </si>
   <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>allegedly</t>
+  </si>
+  <si>
+    <t>significantly</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>hoax</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>allegedly</t>
-  </si>
-  <si>
-    <t>significantly</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>hoax</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>love</t>
@@ -3067,10 +3067,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K6">
         <v>0.8620689655172413</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K7">
         <v>0.85</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K8">
         <v>0.8357142857142857</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K9">
         <v>0.8205128205128205</v>
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K11">
         <v>0.7632978723404256</v>
@@ -3599,28 +3599,28 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>0.7577092511013216</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L12">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="N12">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O12">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3649,28 +3649,28 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K13">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="N13">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O13">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3699,28 +3699,28 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="K14">
-        <v>0.7222222222222222</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="M14">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K15">
         <v>0.7127659574468085</v>
@@ -3799,28 +3799,28 @@
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="K16">
-        <v>0.6861538461538461</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3849,28 +3849,28 @@
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3899,28 +3899,28 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>102</v>
+        <v>256</v>
       </c>
       <c r="K18">
-        <v>0.6588235294117647</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L18">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="M18">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4149,7 +4149,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K23">
         <v>0.5126582278481012</v>
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K25">
         <v>0.4619164619164619</v>
@@ -4349,7 +4349,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K27">
         <v>0.4597156398104265</v>
@@ -4399,7 +4399,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K28">
         <v>0.4523809523809524</v>
@@ -4449,7 +4449,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K29">
         <v>0.4468085106382979</v>
@@ -4499,7 +4499,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K30">
         <v>0.4444444444444444</v>
@@ -4599,7 +4599,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K32">
         <v>0.4421052631578947</v>
@@ -4799,7 +4799,7 @@
         <v>6</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K36">
         <v>0.40625</v>
@@ -4899,7 +4899,7 @@
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K38">
         <v>0.4041237113402062</v>
@@ -5049,7 +5049,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K41">
         <v>0.391304347826087</v>
@@ -5149,7 +5149,7 @@
         <v>9</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K43">
         <v>0.3850931677018634</v>
@@ -5249,7 +5249,7 @@
         <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K45">
         <v>0.3757961783439491</v>
@@ -5399,7 +5399,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K48">
         <v>0.3703703703703703</v>
@@ -5449,7 +5449,7 @@
         <v>14</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K49">
         <v>0.3636363636363636</v>
@@ -5499,7 +5499,7 @@
         <v>271</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K50">
         <v>0.3636363636363636</v>
@@ -5549,7 +5549,7 @@
         <v>7</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K51">
         <v>0.3481481481481482</v>
@@ -5599,7 +5599,7 @@
         <v>13</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K52">
         <v>0.3428571428571429</v>
@@ -5649,7 +5649,7 @@
         <v>8</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K53">
         <v>0.3366093366093366</v>
@@ -5699,7 +5699,7 @@
         <v>4</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K54">
         <v>0.3333333333333333</v>
@@ -6199,7 +6199,7 @@
         <v>20</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K64">
         <v>0.3271028037383177</v>
@@ -6499,7 +6499,7 @@
         <v>10</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K70">
         <v>0.310077519379845</v>
@@ -6599,7 +6599,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K72">
         <v>0.3048780487804878</v>
@@ -6699,7 +6699,7 @@
         <v>12</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K74">
         <v>0.2964169381107492</v>
@@ -6849,7 +6849,7 @@
         <v>18</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K77">
         <v>0.2900677200902935</v>
@@ -6878,25 +6878,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1791044776119403</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C78">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>291</v>
@@ -6928,13 +6928,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1764705882352941</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>292</v>
@@ -6981,22 +6981,22 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>5</v>
-      </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>25</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>293</v>
@@ -7078,13 +7078,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>295</v>
@@ -7128,13 +7128,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1538461538461539</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>296</v>
@@ -7178,13 +7178,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1470588235294118</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K84">
         <v>0.2836322869955157</v>
@@ -7249,7 +7249,7 @@
         <v>6</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K85">
         <v>0.28125</v>
@@ -7281,22 +7281,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>297</v>
@@ -7331,22 +7331,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>298</v>
@@ -7378,25 +7378,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1428571428571428</v>
+        <v>0.1382978723404255</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>299</v>
@@ -7428,13 +7428,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1382978723404255</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C89">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="E89">
         <v>0.9399999999999999</v>
@@ -7446,10 +7446,10 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K89">
         <v>0.2666666666666667</v>
@@ -7478,28 +7478,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1379310344827586</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="E90">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K90">
         <v>0.2666666666666667</v>
@@ -7528,13 +7528,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.131578947368421</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>300</v>
@@ -7578,13 +7578,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1304347826086956</v>
+        <v>0.125</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>301</v>
@@ -7628,28 +7628,28 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1282051282051282</v>
+        <v>0.125</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>238</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K93">
         <v>0.2641509433962264</v>
@@ -7681,25 +7681,25 @@
         <v>0.125</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K94">
         <v>0.2638888888888889</v>
@@ -7728,25 +7728,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>302</v>
@@ -7778,25 +7778,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F96">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>303</v>
@@ -7828,25 +7828,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1212121212121212</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E97">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F97">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>304</v>
@@ -7884,16 +7884,16 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>8</v>
@@ -7934,22 +7934,22 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>8</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K99">
         <v>0.259375</v>
@@ -7978,13 +7978,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -7996,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K100">
         <v>0.2592592592592592</v>
@@ -8028,13 +8028,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1111111111111111</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>306</v>
@@ -8078,13 +8078,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>307</v>
@@ -8128,25 +8128,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1025641025641026</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>308</v>
@@ -8178,7 +8178,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8196,10 +8196,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K104">
         <v>0.2500814067079127</v>
@@ -8228,25 +8228,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>309</v>
@@ -8281,10 +8281,10 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>310</v>
@@ -8328,7 +8328,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>311</v>
@@ -8378,25 +8378,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>312</v>
@@ -8484,16 +8484,16 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>11</v>
@@ -8528,25 +8528,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>315</v>
@@ -8578,28 +8578,28 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K112">
         <v>0.2467532467532468</v>
@@ -8628,25 +8628,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>316</v>
@@ -8678,25 +8678,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="F114">
-        <v>0.18</v>
+        <v>0.5</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>317</v>
@@ -8728,28 +8728,28 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.27</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K115">
         <v>0.24</v>
@@ -8778,25 +8778,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.07692307692307693</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>294</v>
       </c>
       <c r="E116">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F116">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>318</v>
@@ -8828,28 +8828,28 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
         <v>3</v>
       </c>
-      <c r="D117">
-        <v>11</v>
-      </c>
       <c r="E117">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="F117">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K117">
         <v>0.2377358490566038</v>
@@ -8878,25 +8878,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.07291666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>294</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>319</v>
@@ -8984,16 +8984,16 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>13</v>
@@ -9028,28 +9028,28 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K121">
         <v>0.2307692307692308</v>
@@ -9078,25 +9078,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E122">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F122">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>322</v>
@@ -9149,7 +9149,7 @@
         <v>14</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K123">
         <v>0.2307692307692308</v>
@@ -9178,25 +9178,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.06666666666666667</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E124">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F124">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>323</v>
@@ -9228,7 +9228,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>324</v>
@@ -9278,28 +9278,28 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.06493506493506493</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E126">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F126">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K126">
         <v>0.23</v>
@@ -9328,13 +9328,13 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.0625</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -9346,10 +9346,10 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K127">
         <v>0.2290076335877863</v>
@@ -9378,28 +9378,28 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E128">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F128">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K128">
         <v>0.2264150943396226</v>
@@ -9428,25 +9428,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.06040268456375839</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C129">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>325</v>
@@ -9478,25 +9478,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>326</v>
@@ -9531,22 +9531,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E131">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F131">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>327</v>
@@ -9584,16 +9584,16 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
         <v>17</v>
@@ -9631,22 +9631,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>329</v>
@@ -9678,28 +9678,28 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E134">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F134">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K134">
         <v>0.2211221122112211</v>
@@ -9728,25 +9728,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>330</v>
@@ -9778,25 +9778,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.05405405405405406</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D136">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E136">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F136">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>331</v>
@@ -9828,28 +9828,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K137">
         <v>0.2163742690058479</v>
@@ -9878,28 +9878,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.05319148936170213</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E138">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K138">
         <v>0.215929203539823</v>
@@ -9928,25 +9928,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>332</v>
@@ -9978,28 +9978,28 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K140">
         <v>0.2142857142857143</v>
@@ -10034,22 +10034,22 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>19</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K141">
         <v>0.2112676056338028</v>
@@ -10078,25 +10078,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.05</v>
+        <v>0.04782608695652174</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D142">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="E142">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F142">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>333</v>
@@ -10128,25 +10128,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>334</v>
@@ -10178,28 +10178,28 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.04782608695652174</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="E144">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F144">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K144">
         <v>0.2083333333333333</v>
@@ -10228,25 +10228,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E145">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F145">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>335</v>
@@ -10278,25 +10278,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E146">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="F146">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>336</v>
@@ -10334,22 +10334,22 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>22</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K147">
         <v>0.2034428794992175</v>
@@ -10378,25 +10378,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>337</v>
@@ -10428,25 +10428,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>338</v>
@@ -10484,16 +10484,16 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>23</v>
@@ -10528,28 +10528,28 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.04166666666666666</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K151">
         <v>0.2</v>
@@ -10578,25 +10578,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.04166666666666666</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F152">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>340</v>
@@ -10634,16 +10634,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>26</v>
@@ -10678,25 +10678,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.03703703703703703</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E154">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F154">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>342</v>
@@ -10728,25 +10728,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F155">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>343</v>
@@ -10778,25 +10778,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.03636363636363636</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D156">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E156">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F156">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>344</v>
@@ -10828,25 +10828,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>345</v>
@@ -10878,25 +10878,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.03529411764705882</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E158">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F158">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>346</v>
@@ -10934,16 +10934,16 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
         <v>28</v>
@@ -10978,25 +10978,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.03448275862068965</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D160">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E160">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F160">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>348</v>
@@ -11028,25 +11028,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>349</v>
@@ -11078,25 +11078,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.03389830508474576</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D162">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="E162">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F162">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>114</v>
+        <v>270</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>77</v>
@@ -11128,25 +11128,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>78</v>
@@ -11178,25 +11178,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C164">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>270</v>
+        <v>32</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>350</v>
@@ -11228,28 +11228,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.03125</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D165">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="E165">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F165">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K165">
         <v>0.1904761904761905</v>
@@ -11278,25 +11278,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>351</v>
@@ -11328,25 +11328,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.02868852459016394</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C167">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>352</v>
@@ -11378,25 +11378,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E168">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F168">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>353</v>
@@ -11428,7 +11428,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11446,7 +11446,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>354</v>
@@ -11478,25 +11478,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.02777777777777778</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E170">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="F170">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>355</v>
@@ -11528,25 +11528,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>356</v>
@@ -11578,28 +11578,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.02654867256637168</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E172">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="F172">
-        <v>0.18</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K172">
         <v>0.1836734693877551</v>
@@ -11628,25 +11628,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.02564102564102564</v>
+        <v>0.02545454545454546</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E173">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F173">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>38</v>
+        <v>268</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>357</v>
@@ -11678,28 +11678,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E174">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K174">
         <v>0.1821345707656613</v>
@@ -11728,25 +11728,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.02545454545454546</v>
+        <v>0.025</v>
       </c>
       <c r="C175">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>358</v>
@@ -11778,25 +11778,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>359</v>
@@ -11828,25 +11828,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.025</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>360</v>
@@ -11878,25 +11878,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.02439024390243903</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F178">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>361</v>
@@ -11928,13 +11928,13 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E179">
         <v>0.96</v>
@@ -11946,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>362</v>
@@ -11978,25 +11978,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E180">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F180">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>363</v>
@@ -12028,25 +12028,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C181">
         <v>2</v>
       </c>
       <c r="D181">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E181">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="F181">
-        <v>0.04000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>364</v>
@@ -12078,25 +12078,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E182">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F182">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>365</v>
@@ -12128,25 +12128,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E183">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="F183">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>366</v>
@@ -12178,25 +12178,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E184">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F184">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>367</v>
@@ -12228,25 +12228,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02127659574468085</v>
+        <v>0.02115384615384616</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D185">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="E185">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F185">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>46</v>
+        <v>509</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>368</v>
@@ -12278,25 +12278,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F186">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>369</v>
@@ -12328,28 +12328,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02115384615384616</v>
+        <v>0.02</v>
       </c>
       <c r="C187">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="E187">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F187">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>509</v>
+        <v>98</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K187">
         <v>0.1780821917808219</v>
@@ -12378,28 +12378,28 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02040816326530612</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="E188">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F188">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K188">
         <v>0.1777777777777778</v>
@@ -12428,28 +12428,28 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="E189">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F189">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K189">
         <v>0.1764705882352941</v>
@@ -12478,25 +12478,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0198019801980198</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="C190">
         <v>2</v>
       </c>
       <c r="D190">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E190">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F190">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>370</v>
@@ -12528,25 +12528,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E191">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F191">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>371</v>
@@ -12578,25 +12578,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.01941747572815534</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D192">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E192">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F192">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>372</v>
@@ -12628,25 +12628,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.01923076923076923</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E193">
-        <v>0.97</v>
+        <v>0.6</v>
       </c>
       <c r="F193">
-        <v>0.03000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>373</v>
@@ -12678,25 +12678,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.01910828025477707</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E194">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F194">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>374</v>
@@ -12728,25 +12728,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.01904761904761905</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E195">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="F195">
-        <v>0.4</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>375</v>
@@ -12778,25 +12778,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E196">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F196">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>376</v>
@@ -12828,25 +12828,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E197">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F197">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>377</v>
@@ -12878,25 +12878,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.01851851851851852</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
         <v>20</v>
       </c>
       <c r="E198">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F198">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>378</v>
@@ -12928,25 +12928,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E199">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F199">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>379</v>
@@ -12978,25 +12978,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.01801801801801802</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
         <v>20</v>
       </c>
       <c r="E200">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F200">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>380</v>
@@ -13028,25 +13028,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E201">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F201">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>381</v>
@@ -13078,25 +13078,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E202">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F202">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>382</v>
@@ -13128,25 +13128,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.01694915254237288</v>
+        <v>0.015625</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E203">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F203">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>383</v>
@@ -13178,25 +13178,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.01666666666666667</v>
+        <v>0.01539119281744335</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D204">
-        <v>4</v>
+        <v>804</v>
       </c>
       <c r="E204">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F204">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>59</v>
+        <v>2303</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>384</v>
@@ -13228,25 +13228,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.015625</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D205">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="E205">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F205">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>63</v>
+        <v>639</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>385</v>
@@ -13278,25 +13278,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.01539119281744335</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C206">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>804</v>
+        <v>8</v>
       </c>
       <c r="E206">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F206">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>2303</v>
+        <v>71</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>386</v>
@@ -13328,25 +13328,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.01388888888888889</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C207">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>262</v>
+        <v>4</v>
       </c>
       <c r="E207">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F207">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>639</v>
+        <v>72</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>387</v>
@@ -13378,7 +13378,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.01388888888888889</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13396,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>388</v>
@@ -13428,25 +13428,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0136986301369863</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E209">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F209">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>389</v>
@@ -13478,25 +13478,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.01333333333333333</v>
+        <v>0.01314217443249701</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D210">
-        <v>8</v>
+        <v>491</v>
       </c>
       <c r="E210">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F210">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>74</v>
+        <v>1652</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>390</v>
@@ -13528,25 +13528,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.01333333333333333</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E211">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F211">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>391</v>
@@ -13578,25 +13578,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.01314217443249701</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C212">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>491</v>
+        <v>82</v>
       </c>
       <c r="E212">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F212">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>1652</v>
+        <v>77</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>392</v>
@@ -13628,25 +13628,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01282051282051282</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E213">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F213">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>393</v>
@@ -13678,25 +13678,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01282051282051282</v>
+        <v>0.01255886970172685</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D214">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="E214">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F214">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>77</v>
+        <v>629</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>394</v>
@@ -13728,25 +13728,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01265822784810127</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E215">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>395</v>
@@ -13778,25 +13778,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01255886970172685</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C216">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>265</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>629</v>
+        <v>89</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>396</v>
@@ -13828,28 +13828,28 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01204819277108434</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K217">
         <v>0.1590909090909091</v>
@@ -13878,25 +13878,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01111111111111111</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>397</v>
@@ -13928,28 +13928,28 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01111111111111111</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E219">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F219">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K219">
         <v>0.1538461538461539</v>
@@ -13978,25 +13978,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01075268817204301</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F220">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>398</v>
@@ -14028,7 +14028,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01063829787234043</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14046,7 +14046,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>399</v>
@@ -14078,25 +14078,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01041666666666667</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E222">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F222">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>400</v>
@@ -14128,25 +14128,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01030927835051546</v>
+        <v>0.01</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E223">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F223">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>401</v>
@@ -14178,28 +14178,28 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0101010101010101</v>
+        <v>0.01</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E224">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F224">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K224">
         <v>0.1515151515151515</v>
@@ -14228,25 +14228,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E225">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F225">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>402</v>
@@ -14278,28 +14278,28 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E226">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F226">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K226">
         <v>0.15</v>
@@ -14328,25 +14328,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.009900990099009901</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>403</v>
@@ -14378,25 +14378,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.009803921568627451</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E228">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F228">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>404</v>
@@ -14428,25 +14428,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.009433962264150943</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>405</v>
@@ -14478,28 +14478,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.008849557522123894</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E230">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F230">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K230">
         <v>0.1428571428571428</v>
@@ -14528,25 +14528,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.008849557522123894</v>
+        <v>0.008519701810436636</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D231">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E231">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="F231">
-        <v>0.03000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>112</v>
+        <v>931</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>406</v>
@@ -14578,25 +14578,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.008695652173913044</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E232">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F232">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>407</v>
@@ -14628,25 +14628,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.008519701810436636</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="C233">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E233">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="F233">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>931</v>
+        <v>122</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>408</v>
@@ -14678,25 +14678,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.008264462809917356</v>
+        <v>0.008</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E234">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F234">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>409</v>
@@ -14728,25 +14728,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.008130081300813009</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>410</v>
@@ -14778,25 +14778,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.008</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E236">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F236">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>411</v>
@@ -14828,25 +14828,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.007936507936507936</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>250</v>
+        <v>705</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>412</v>
@@ -14878,25 +14878,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.007874015748031496</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E238">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F238">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>413</v>
@@ -14928,25 +14928,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.007042253521126761</v>
+        <v>0.005361930294906166</v>
       </c>
       <c r="C239">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="E239">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>705</v>
+        <v>371</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>414</v>
@@ -14978,25 +14978,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.005988023952095809</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F240">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>415</v>
@@ -15028,25 +15028,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.005361930294906166</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <v>371</v>
+        <v>216</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>416</v>
@@ -15078,25 +15078,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.005025125628140704</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E242">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F242">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>417</v>
@@ -15128,25 +15128,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.004608294930875576</v>
+        <v>0.004494382022471911</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E243">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F243">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>216</v>
+        <v>443</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>418</v>
@@ -15178,25 +15178,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.004504504504504504</v>
+        <v>0.003853564547206166</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E244">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F244">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>221</v>
+        <v>517</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>419</v>
@@ -15228,25 +15228,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.004494382022471911</v>
+        <v>0.003496503496503497</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="E245">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F245">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>443</v>
+        <v>285</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>420</v>
@@ -15278,25 +15278,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.003853564547206166</v>
+        <v>0.003448275862068965</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="E246">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F246">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>517</v>
+        <v>289</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>421</v>
@@ -15328,25 +15328,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.003496503496503497</v>
+        <v>0.00165180046250413</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D247">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="E247">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F247">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>285</v>
+        <v>3022</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>422</v>
@@ -15378,25 +15378,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.003448275862068965</v>
+        <v>0.0009124087591240876</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c r="E248">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F248">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>289</v>
+        <v>1095</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>423</v>
@@ -15424,30 +15424,6 @@
       </c>
     </row>
     <row r="249" spans="1:17">
-      <c r="A249" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B249">
-        <v>0.00165180046250413</v>
-      </c>
-      <c r="C249">
-        <v>5</v>
-      </c>
-      <c r="D249">
-        <v>179</v>
-      </c>
-      <c r="E249">
-        <v>0.97</v>
-      </c>
-      <c r="F249">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249">
-        <v>3022</v>
-      </c>
       <c r="J249" s="1" t="s">
         <v>424</v>
       </c>
@@ -15474,30 +15450,6 @@
       </c>
     </row>
     <row r="250" spans="1:17">
-      <c r="A250" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B250">
-        <v>0.0009124087591240876</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250">
-        <v>66</v>
-      </c>
-      <c r="E250">
-        <v>0.98</v>
-      </c>
-      <c r="F250">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250">
-        <v>1095</v>
-      </c>
       <c r="J250" s="1" t="s">
         <v>425</v>
       </c>
@@ -15967,7 +15919,7 @@
     </row>
     <row r="268" spans="10:17">
       <c r="J268" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K268">
         <v>0.1417322834645669</v>
@@ -16045,7 +15997,7 @@
     </row>
     <row r="271" spans="10:17">
       <c r="J271" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K271">
         <v>0.1388888888888889</v>
@@ -16071,7 +16023,7 @@
     </row>
     <row r="272" spans="10:17">
       <c r="J272" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K272">
         <v>0.1388888888888889</v>
@@ -16253,7 +16205,7 @@
     </row>
     <row r="279" spans="10:17">
       <c r="J279" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K279">
         <v>0.1359223300970874</v>
@@ -16305,7 +16257,7 @@
     </row>
     <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K281">
         <v>0.1351351351351351</v>
@@ -16357,7 +16309,7 @@
     </row>
     <row r="283" spans="10:17">
       <c r="J283" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K283">
         <v>0.1346153846153846</v>
@@ -16487,7 +16439,7 @@
     </row>
     <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K288">
         <v>0.1333333333333333</v>
@@ -16591,7 +16543,7 @@
     </row>
     <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K292">
         <v>0.1333333333333333</v>
@@ -16643,7 +16595,7 @@
     </row>
     <row r="294" spans="10:17">
       <c r="J294" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K294">
         <v>0.1320754716981132</v>
@@ -16747,7 +16699,7 @@
     </row>
     <row r="298" spans="10:17">
       <c r="J298" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K298">
         <v>0.1290322580645161</v>
@@ -17813,7 +17765,7 @@
     </row>
     <row r="339" spans="10:17">
       <c r="J339" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K339">
         <v>0.1181102362204724</v>
@@ -18021,7 +17973,7 @@
     </row>
     <row r="347" spans="10:17">
       <c r="J347" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K347">
         <v>0.1160714285714286</v>
@@ -18047,7 +17999,7 @@
     </row>
     <row r="348" spans="10:17">
       <c r="J348" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K348">
         <v>0.1160714285714286</v>
@@ -18255,7 +18207,7 @@
     </row>
     <row r="356" spans="10:17">
       <c r="J356" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K356">
         <v>0.1129032258064516</v>
@@ -18281,7 +18233,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K357">
         <v>0.1126760563380282</v>
@@ -18801,7 +18753,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K377">
         <v>0.1111111111111111</v>
@@ -18827,7 +18779,7 @@
     </row>
     <row r="378" spans="10:17">
       <c r="J378" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K378">
         <v>0.1111111111111111</v>
@@ -19009,7 +18961,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K385">
         <v>0.1076923076923077</v>
@@ -19061,7 +19013,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K387">
         <v>0.1052631578947368</v>
@@ -20257,7 +20209,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K433">
         <v>0.0948905109489051</v>
@@ -20491,7 +20443,7 @@
     </row>
     <row r="442" spans="10:17">
       <c r="J442" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K442">
         <v>0.09090909090909091</v>
@@ -20881,7 +20833,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K457">
         <v>0.08974358974358974</v>
@@ -21011,7 +20963,7 @@
     </row>
     <row r="462" spans="10:17">
       <c r="J462" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K462">
         <v>0.08641975308641975</v>
@@ -21661,7 +21613,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K487">
         <v>0.08</v>
@@ -21791,7 +21743,7 @@
     </row>
     <row r="492" spans="10:17">
       <c r="J492" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K492">
         <v>0.07894736842105263</v>
@@ -22025,7 +21977,7 @@
     </row>
     <row r="501" spans="10:17">
       <c r="J501" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K501">
         <v>0.07692307692307693</v>
@@ -22337,7 +22289,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K513">
         <v>0.07352941176470588</v>
@@ -22363,7 +22315,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K514">
         <v>0.07216494845360824</v>
@@ -23299,7 +23251,7 @@
     </row>
     <row r="550" spans="10:17">
       <c r="J550" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K550">
         <v>0.06557377049180328</v>
@@ -23455,7 +23407,7 @@
     </row>
     <row r="556" spans="10:17">
       <c r="J556" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K556">
         <v>0.0635593220338983</v>
@@ -24235,7 +24187,7 @@
     </row>
     <row r="586" spans="10:17">
       <c r="J586" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K586">
         <v>0.05603448275862069</v>
@@ -24287,7 +24239,7 @@
     </row>
     <row r="588" spans="10:17">
       <c r="J588" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K588">
         <v>0.05555555555555555</v>
@@ -24495,7 +24447,7 @@
     </row>
     <row r="596" spans="10:17">
       <c r="J596" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K596">
         <v>0.05454545454545454</v>
@@ -24521,7 +24473,7 @@
     </row>
     <row r="597" spans="10:17">
       <c r="J597" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K597">
         <v>0.05444305381727159</v>
@@ -25041,7 +24993,7 @@
     </row>
     <row r="617" spans="10:17">
       <c r="J617" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K617">
         <v>0.05</v>
@@ -25275,7 +25227,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K626">
         <v>0.04838709677419355</v>
@@ -25301,7 +25253,7 @@
     </row>
     <row r="627" spans="10:17">
       <c r="J627" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K627">
         <v>0.04788213627992634</v>
@@ -26029,7 +25981,7 @@
     </row>
     <row r="655" spans="10:17">
       <c r="J655" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K655">
         <v>0.04040404040404041</v>
@@ -26055,7 +26007,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K656">
         <v>0.04</v>
@@ -26419,7 +26371,7 @@
     </row>
     <row r="670" spans="10:17">
       <c r="J670" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K670">
         <v>0.03703703703703703</v>
@@ -26601,7 +26553,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K677">
         <v>0.03571428571428571</v>
@@ -27173,7 +27125,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K699">
         <v>0.03020833333333333</v>
@@ -27329,7 +27281,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K705">
         <v>0.02830188679245283</v>
@@ -27901,7 +27853,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K727">
         <v>0.024</v>
@@ -27927,7 +27879,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K728">
         <v>0.02352941176470588</v>
@@ -27979,7 +27931,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K730">
         <v>0.02272727272727273</v>
@@ -28161,7 +28113,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K737">
         <v>0.02127659574468085</v>
@@ -28239,7 +28191,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K740">
         <v>0.02040816326530612</v>
@@ -28265,7 +28217,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K741">
         <v>0.02</v>
@@ -28499,7 +28451,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K750">
         <v>0.01724137931034483</v>
@@ -28993,7 +28945,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K769">
         <v>0.01</v>
